--- a/Shows/Musical/Patch Plan.xlsx
+++ b/Shows/Musical/Patch Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub Onyx\Onyx-Tutorial\Shows\Musical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED288A87-13DF-4645-885F-183C4F45AE87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF9DA68-2F3B-422F-BF61-3DEDFD707DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5925" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30375" yWindow="-4740" windowWidth="13695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="112">
   <si>
     <t>Type</t>
   </si>
@@ -280,6 +280,87 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>Clay Paky</t>
+  </si>
+  <si>
+    <t>Alpha Beam 700</t>
+  </si>
+  <si>
+    <t>B.184</t>
+  </si>
+  <si>
+    <t>B.206</t>
+  </si>
+  <si>
+    <t>B.228</t>
+  </si>
+  <si>
+    <t>B.250</t>
+  </si>
+  <si>
+    <t>B.272</t>
+  </si>
+  <si>
+    <t>B.294</t>
+  </si>
+  <si>
+    <t>B.316</t>
+  </si>
+  <si>
+    <t>B.338</t>
+  </si>
+  <si>
+    <t>B.360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standart </t>
+  </si>
+  <si>
+    <t>Left Truss 1</t>
+  </si>
+  <si>
+    <t>Left Truss 2</t>
+  </si>
+  <si>
+    <t>Left Truss 3</t>
+  </si>
+  <si>
+    <t>B.382</t>
+  </si>
+  <si>
+    <t>B.404</t>
+  </si>
+  <si>
+    <t>B.426</t>
+  </si>
+  <si>
+    <t>Right Truss 3</t>
+  </si>
+  <si>
+    <t>C.001</t>
+  </si>
+  <si>
+    <t>C.023</t>
+  </si>
+  <si>
+    <t>C.045</t>
+  </si>
+  <si>
+    <t>C.067</t>
+  </si>
+  <si>
+    <t>C.089</t>
+  </si>
+  <si>
+    <t>C.111</t>
+  </si>
+  <si>
+    <t>Right Truss 2</t>
+  </si>
+  <si>
+    <t>Right Truss 1</t>
   </si>
 </sst>
 </file>
@@ -307,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +467,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -399,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -419,6 +512,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -708,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,6 +1736,278 @@
         <v>40</v>
       </c>
     </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Shows/Musical/Patch Plan.xlsx
+++ b/Shows/Musical/Patch Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub Onyx\Onyx-Tutorial\Shows\Musical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF9DA68-2F3B-422F-BF61-3DEDFD707DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042FAAE9-2DC3-4F01-9254-7C9B259815B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30375" yWindow="-4740" windowWidth="13695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="117">
   <si>
     <t>Type</t>
   </si>
@@ -96,9 +96,6 @@
     <t>A.043</t>
   </si>
   <si>
-    <t>Cahnnel Modus</t>
-  </si>
-  <si>
     <t>6 Channel</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Mode 2 Enhanced</t>
   </si>
   <si>
-    <t>A.189</t>
-  </si>
-  <si>
     <t>A.217</t>
   </si>
   <si>
@@ -361,13 +355,34 @@
   </si>
   <si>
     <t>Right Truss 1</t>
+  </si>
+  <si>
+    <t>C.133</t>
+  </si>
+  <si>
+    <t>(Ups)</t>
+  </si>
+  <si>
+    <t>Spot</t>
+  </si>
+  <si>
+    <t>C.161</t>
+  </si>
+  <si>
+    <t>C.189</t>
+  </si>
+  <si>
+    <t>C.217</t>
+  </si>
+  <si>
+    <t>Channel Modus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,8 +402,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +501,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -492,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -514,6 +542,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -538,6 +570,96 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6115050" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Textfeld 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF57307-DD44-4D95-B668-57C7A4DF7C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="14287500"/>
+          <a:ext cx="6115050" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Die</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> VL3000 in der Position Spot sollen als Profiler/Follow Spots verwendet werden. (in der Student Version gibt es keine richtigen Profiler).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Die einzigen Parameter die genutz werden dürfen sind: Int, P/T, Color, Beam.</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -843,13 +965,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -860,13 +982,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -877,13 +999,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -894,13 +1016,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -911,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -928,13 +1050,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,13 +1067,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -962,13 +1084,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,13 +1101,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,13 +1118,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1013,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1030,13 +1152,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1047,13 +1169,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,13 +1186,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1081,33 +1203,36 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -1115,16 +1240,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -1132,16 +1257,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -1149,16 +1274,16 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1166,16 +1291,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -1183,16 +1308,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1200,16 +1325,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -1217,16 +1342,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -1234,16 +1359,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -1251,16 +1376,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
@@ -1268,16 +1393,16 @@
         <v>7</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>6</v>
       </c>
@@ -1285,16 +1410,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>6</v>
       </c>
@@ -1302,16 +1427,16 @@
         <v>7</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
@@ -1319,16 +1444,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>6</v>
       </c>
@@ -1336,16 +1461,16 @@
         <v>7</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -1353,13 +1478,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1370,13 +1495,13 @@
         <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,13 +1512,13 @@
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1404,13 +1529,13 @@
         <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1421,13 +1546,13 @@
         <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="E36" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1435,13 +1560,13 @@
         <v>10</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>13</v>
@@ -1452,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>13</v>
@@ -1469,13 +1594,13 @@
         <v>10</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>13</v>
@@ -1486,13 +1611,13 @@
         <v>10</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>13</v>
@@ -1503,13 +1628,13 @@
         <v>10</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>14</v>
@@ -1520,13 +1645,13 @@
         <v>10</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>14</v>
@@ -1537,13 +1662,13 @@
         <v>10</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>14</v>
@@ -1554,13 +1679,13 @@
         <v>10</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>14</v>
@@ -1574,13 +1699,13 @@
         <v>12</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1591,13 +1716,13 @@
         <v>12</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1608,13 +1733,13 @@
         <v>12</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1625,13 +1750,13 @@
         <v>12</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1642,13 +1767,13 @@
         <v>12</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1659,13 +1784,13 @@
         <v>12</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1676,13 +1801,13 @@
         <v>12</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1693,13 +1818,13 @@
         <v>12</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1710,13 +1835,13 @@
         <v>12</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1727,290 +1852,342 @@
         <v>12</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>87</v>
-      </c>
       <c r="D55" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B56" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>